--- a/_manuscript/s1_table_value_types.xlsx
+++ b/_manuscript/s1_table_value_types.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Value Domain</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Values of entities or processes  important as means to achieve human ends or satisfy human preferences (in principle replaceable, albeit not always in practice)</t>
   </si>
   <si>
-    <t>Increased crop yield and profit based on improved seasonal forecasts</t>
-  </si>
-  <si>
     <t>Intrinsic</t>
   </si>
   <si>
@@ -69,13 +66,19 @@
   </si>
   <si>
     <t>Values of or deriving from desirable, meaningful, just and reciprocal relationships with “nature” or between people through nature; Values relative to or deriving from relationships that are constituent parts of identity (cultural, individual or collective); Values relative to or deriving from relationships that are constituent elements for living a “good life”; Values associated with sense of place, including interconnection of cultural and sacred landscapes; Values associated with care for or about specific landscapes, places, human and other-than-humans; Value of nature as a point of connection among people, binding communities together and supporting social networks, such as in traditional markets</t>
+  </si>
+  <si>
+    <t>Reduced polio transmission and reduced health cost due to improved targeting of populations (Borowitz et al. 2023); increased consumer surplus of crops due to improved weather forecasts (Cooke and Golub 2020); avoided losses from improved wildfire suppression (Herr et al. 2020)</t>
+  </si>
+  <si>
+    <t>Inceased agency of Indigenous communities for monitoring and enforcing illegal deforestation (Gonzalez et al. 2023); sense of community and quality of life through common understanding of decision contexts (Sawyer et al. 2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,20 +88,27 @@
     </font>
     <font>
       <b/>
-      <sz val="6.95"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="6.95"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="6.95"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -157,16 +167,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,18 +460,19 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="94.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="94.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,45 +486,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:4" ht="84" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
